--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/RHODE_ISLAND_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/RHODE_ISLAND_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -444,7 +444,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C6">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.09322033898305085</v>
+        <v>0.09322033898305083</v>
       </c>
     </row>
     <row r="11">
@@ -545,12 +545,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C13">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C16">
@@ -615,12 +615,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C18">
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C20">
@@ -682,7 +682,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C22">
@@ -708,7 +708,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C24">
@@ -721,7 +721,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C25">
@@ -734,7 +734,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C26">
@@ -799,7 +799,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C31">
@@ -882,7 +882,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C37">
@@ -895,7 +895,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C38">
@@ -952,7 +952,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C42">
@@ -996,7 +996,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C45">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C52">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C56">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C70">
@@ -1364,7 +1364,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C71">
@@ -1514,7 +1514,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C81">
@@ -1657,41 +1657,6 @@
       </c>
       <c r="D91">
         <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/RHODE_ISLAND_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/RHODE_ISLAND_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -667,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Santiago Ihuitlán Plumas</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1253,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1266,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1279,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1362,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1375,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1406,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -1419,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1450,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1481,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1512,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -1525,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1556,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1569,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1582,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1595,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1608,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1621,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1634,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
